--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AR2_50_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AR2_50_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01530033142940306</v>
+        <v>-0.00425486747011913</v>
       </c>
       <c r="C7">
-        <v>0.4761067226508843</v>
+        <v>0.3443463908930565</v>
       </c>
       <c r="D7">
-        <v>0.3281449184043319</v>
+        <v>0.195059600954732</v>
       </c>
       <c r="E7">
-        <v>0.5728393478143169</v>
+        <v>0.4416555229528235</v>
       </c>
       <c r="F7">
-        <v>0.5902586250143977</v>
+        <v>0.4684246835828965</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.092631146165428</v>
+        <v>-0.06287940768484762</v>
       </c>
       <c r="C8">
-        <v>0.3161619517810839</v>
+        <v>0.2866386044041229</v>
       </c>
       <c r="D8">
-        <v>0.1546025306578051</v>
+        <v>0.1396032209128983</v>
       </c>
       <c r="E8">
-        <v>0.3931952831072686</v>
+        <v>0.3736351441083913</v>
       </c>
       <c r="F8">
-        <v>0.3938887869773675</v>
+        <v>0.3906476367871226</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
